--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1096547.171926267</v>
+        <v>1093846.52230296</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>25.67913628361561</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -716,16 +716,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>12.84496163790551</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>18.56117045231616</v>
       </c>
       <c r="X3" t="n">
-        <v>179.0673148804946</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.90919546454411</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.073567695085452</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
-        <v>69.89723977961849</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520062</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.45828691911224</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.0198440937145</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339769</v>
       </c>
       <c r="I6" t="n">
-        <v>27.63492518706789</v>
+        <v>36.31604239259342</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>39.72016663385699</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.5819666321988</v>
       </c>
       <c r="H7" t="n">
-        <v>141.2242046203236</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477918</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714492</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>312.8205413258964</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>90.69811547110071</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570811</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>270.1915102239717</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.75935605466792</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035195</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>37.30359504419324</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146337</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076761</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064784</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>298.9494425801237</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>84.56702400647454</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819367</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>54.32649042089696</v>
+        <v>99.97427419834185</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>72.26558381699921</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699817</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408077</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>104.8913819999782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>208.710553438176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977245</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>94.9152960190133</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812072</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833868</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>53.08838020946148</v>
+        <v>121.8000472740341</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411526</v>
+        <v>814.4829423425513</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822814</v>
+        <v>560.79792428368</v>
       </c>
       <c r="V2" t="n">
-        <v>320.3587892151035</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.4937968510533</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>366.2540956160072</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.4937968510533</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.42616776776447</v>
+        <v>252.5678342013043</v>
       </c>
       <c r="C4" t="n">
-        <v>39.42616776776447</v>
+        <v>83.63165127339738</v>
       </c>
       <c r="D4" t="n">
-        <v>39.42616776776447</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>39.42616776776447</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>39.42616776776447</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>700.593955598722</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>434.216299031544</v>
       </c>
       <c r="X4" t="n">
-        <v>39.42616776776447</v>
+        <v>434.216299031544</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.42616776776447</v>
+        <v>434.216299031544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221.1304208656681</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="C5" t="n">
-        <v>221.1304208656681</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="D5" t="n">
-        <v>221.1304208656681</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="E5" t="n">
-        <v>221.1304208656681</v>
+        <v>363.2301242988745</v>
       </c>
       <c r="F5" t="n">
-        <v>214.1849201164646</v>
+        <v>356.284623549671</v>
       </c>
       <c r="G5" t="n">
-        <v>201.6381501485267</v>
+        <v>343.7378535817331</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438615</v>
+        <v>30.64158752749716</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749727</v>
+        <v>30.64158752749716</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281418</v>
+        <v>93.51877468281373</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452981</v>
+        <v>238.493897245297</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192551</v>
+        <v>455.2501182192535</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494228</v>
+        <v>728.1026159494206</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730201</v>
+        <v>1009.983960730198</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145368</v>
+        <v>1262.821260145364</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739598</v>
+        <v>1444.111044739593</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374864</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374864</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374864</v>
+        <v>1466.969995648482</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374864</v>
+        <v>1466.969995648482</v>
       </c>
       <c r="U5" t="n">
-        <v>1278.427721740433</v>
+        <v>1466.969995648482</v>
       </c>
       <c r="V5" t="n">
-        <v>947.3648343968622</v>
+        <v>1135.907108304911</v>
       </c>
       <c r="W5" t="n">
-        <v>594.596179126748</v>
+        <v>1135.907108304911</v>
       </c>
       <c r="X5" t="n">
-        <v>221.1304208656681</v>
+        <v>1135.907108304911</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.1304208656681</v>
+        <v>749.0183768971187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.55565337302039</v>
+        <v>489.0410202739068</v>
       </c>
       <c r="C6" t="n">
-        <v>58.55565337302039</v>
+        <v>314.5879909927799</v>
       </c>
       <c r="D6" t="n">
-        <v>58.55565337302039</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="E6" t="n">
-        <v>58.55565337302039</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="F6" t="n">
-        <v>58.55565337302039</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="G6" t="n">
-        <v>58.55565337302039</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="H6" t="n">
-        <v>58.55565337302039</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749727</v>
+        <v>30.64158752749716</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835645</v>
+        <v>49.27296248835606</v>
       </c>
       <c r="K6" t="n">
-        <v>387.8643287482179</v>
+        <v>202.9042018085639</v>
       </c>
       <c r="L6" t="n">
-        <v>582.0938474613439</v>
+        <v>582.0938474613413</v>
       </c>
       <c r="M6" t="n">
-        <v>828.1074027572809</v>
+        <v>828.1074027572776</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741468</v>
+        <v>1095.040849741464</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.013008851469</v>
+        <v>1317.013008851464</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705195</v>
+        <v>1475.83216970519</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374864</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374864</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525669</v>
+        <v>1387.587760525663</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163166</v>
+        <v>1387.587760525663</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034515</v>
+        <v>1159.466594665949</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090717088</v>
+        <v>1119.345214227709</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435071</v>
+        <v>865.1078574995076</v>
       </c>
       <c r="X6" t="n">
-        <v>266.3159521379743</v>
+        <v>657.2563572939748</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.55565337302039</v>
+        <v>657.2563572939748</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="C7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="D7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="E7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="F7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="G7" t="n">
-        <v>175.2908198939635</v>
+        <v>148.4002687022239</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626285</v>
+        <v>148.4002687022239</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626285</v>
+        <v>30.64158752749716</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749727</v>
+        <v>30.64158752749716</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747005</v>
+        <v>157.2595961747001</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914625</v>
+        <v>374.8134887914618</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437699</v>
+        <v>614.5826883437687</v>
       </c>
       <c r="N7" t="n">
-        <v>854.085328663088</v>
+        <v>854.0853286630866</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109134</v>
+        <v>1059.288486109132</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016232</v>
+        <v>1211.35455501623</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767126</v>
+        <v>1233.202138767123</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767126</v>
+        <v>1112.821005058589</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767126</v>
+        <v>1112.821005058589</v>
       </c>
       <c r="T7" t="n">
-        <v>1008.532406082497</v>
+        <v>888.1512723739603</v>
       </c>
       <c r="U7" t="n">
-        <v>719.392478136811</v>
+        <v>599.0113444282742</v>
       </c>
       <c r="V7" t="n">
-        <v>464.7079899309241</v>
+        <v>599.0113444282742</v>
       </c>
       <c r="W7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="X7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.2908198939635</v>
+        <v>309.5941743913136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.907945722349</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.945428781938</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6797301751872</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8914775769429</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.507785786471</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4869,43 +4869,43 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694952</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425661</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2561.393271046731</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>142.86104461962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1176.993134082604</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1176.993134082604</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>766.0072292929963</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>351.4317836226431</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="I11" t="n">
         <v>78.51106622469189</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386835</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420326</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
         <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765426</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
         <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882244</v>
+        <v>3835.937563882243</v>
       </c>
       <c r="R11" t="n">
         <v>3925.553311234594</v>
       </c>
       <c r="S11" t="n">
-        <v>3897.513557644021</v>
+        <v>3826.588132455664</v>
       </c>
       <c r="T11" t="n">
-        <v>3693.711447159801</v>
+        <v>3622.786021971444</v>
       </c>
       <c r="U11" t="n">
-        <v>3440.220730792409</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3109.157843448838</v>
+        <v>3038.232418260482</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
         <v>78.51106622469189</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469189</v>
+        <v>196.812062379213</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469189</v>
+        <v>477.1621322376506</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520018</v>
+        <v>900.4499396649603</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895892</v>
+        <v>977.390502384806</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735873</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826878</v>
+        <v>226.424159807085</v>
       </c>
       <c r="C13" t="n">
-        <v>245.9909637481491</v>
+        <v>226.424159807085</v>
       </c>
       <c r="D13" t="n">
-        <v>245.9909637481491</v>
+        <v>226.424159807085</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469189</v>
       </c>
       <c r="G13" t="n">
         <v>78.51106622469189</v>
@@ -5200,10 +5200,10 @@
         <v>139.0818334600401</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457705</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888919</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5221,28 +5221,28 @@
         <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1888.302075370156</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.488017920202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897323</v>
+        <v>1378.397311360491</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691436</v>
+        <v>1123.712823154604</v>
       </c>
       <c r="W13" t="n">
-        <v>914.101957654475</v>
+        <v>834.2956531176435</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564576</v>
+        <v>606.3061022196262</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129275</v>
+        <v>408.0726246373247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>97.83671828558994</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>428.3454608489487</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>919.0777936927001</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1511.096147944828</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220742</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941672</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>239.7015707239909</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="E16" t="n">
-        <v>239.7015707239909</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.3462391076</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136709</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930822</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.489584893861</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>896.500033995844</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523138</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179089</v>
+        <v>513.853600740075</v>
       </c>
       <c r="C19" t="n">
-        <v>593.611586390002</v>
+        <v>344.9174178121681</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776662</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952731</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="F19" t="n">
-        <v>148.6919058973628</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="G19" t="n">
-        <v>148.6919058973628</v>
+        <v>194.8007783998323</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179089</v>
+        <v>695.5020655703139</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.112710026074</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026074</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121647</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121647</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,22 +6385,22 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075822</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1052.829365488566</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>883.8931825606594</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>733.7765431483235</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E34" t="n">
-        <v>585.8634495659304</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F34" t="n">
-        <v>438.9735020680201</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>271.7774027829</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,7 +6859,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
         <v>826.140538179774</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.259960360353</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188009</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925707</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490406</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400719</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,7 +7585,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7628,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,13 +7673,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123002</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098229</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752777</v>
+        <v>34.58458098752814</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>230.9015698637236</v>
+        <v>44.07315881356888</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.8284110501535</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878358</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>21.89339468985728</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670549</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238021</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.21617093647303</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>129.9432260544346</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>89.71507747034036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561635</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>50.29152613728934</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>64.04844901173782</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922693</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>85.9682224253269</v>
+        <v>40.32043864788203</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372228711</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844822946</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>77.81244489841504</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431588</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>45.37941682721059</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294942</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600916</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393017</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823111</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>114.1584408891663</v>
+        <v>45.44677382459376</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954737.6670099207</v>
+        <v>954737.6670099203</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709911</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959986.1899709915</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.2415876635</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918676</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
@@ -26335,7 +26335,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
@@ -26344,13 +26344,13 @@
         <v>464109.2948217535</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217537</v>
-      </c>
       <c r="O2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217535</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103546</v>
+        <v>132064.9098103528</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196353</v>
+        <v>266112.9182196368</v>
       </c>
       <c r="E3" t="n">
         <v>325187.1190357071</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051374</v>
+        <v>166521.347105137</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648384</v>
+        <v>30705.53736648347</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950831</v>
+        <v>65187.38037950864</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456835</v>
+        <v>84929.59434456838</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848903</v>
+        <v>43782.40655848881</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217658.7366997665</v>
+        <v>217658.7366997669</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
@@ -26430,34 +26430,34 @@
         <v>12380.38756059278</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181812</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
+        <v>12386.92018181811</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="O4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="N4" t="n">
-        <v>12386.92018181812</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>12386.92018181815</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12386.92018181817</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589732</v>
+        <v>72540.50950589721</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214717</v>
+        <v>86093.72216214715</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-524053.5310308311</v>
+        <v>-524053.531030831</v>
       </c>
       <c r="C6" t="n">
-        <v>49834.86165594458</v>
+        <v>49834.86165594609</v>
       </c>
       <c r="D6" t="n">
-        <v>-29698.63025521643</v>
+        <v>-29698.63025521787</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6011652970192</v>
+        <v>28.6369214524286</v>
       </c>
       <c r="F6" t="n">
-        <v>182497.005512299</v>
+        <v>182451.1005167338</v>
       </c>
       <c r="G6" t="n">
-        <v>339432.6085804496</v>
+        <v>339397.8706550133</v>
       </c>
       <c r="H6" t="n">
-        <v>350599.8448160286</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="I6" t="n">
-        <v>350599.8448160283</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="J6" t="n">
-        <v>281600.6903969144</v>
+        <v>281565.9524714784</v>
       </c>
       <c r="K6" t="n">
-        <v>319894.3074495445</v>
+        <v>319859.5695241091</v>
       </c>
       <c r="L6" t="n">
-        <v>285412.4644365199</v>
+        <v>285377.7265110839</v>
       </c>
       <c r="M6" t="n">
-        <v>265670.2504714599</v>
+        <v>265635.5125460243</v>
       </c>
       <c r="N6" t="n">
-        <v>306817.4382575394</v>
+        <v>306782.7003321038</v>
       </c>
       <c r="O6" t="n">
-        <v>347576.5468388037</v>
+        <v>347541.8089133679</v>
       </c>
       <c r="P6" t="n">
-        <v>350599.8448160283</v>
+        <v>350565.1068905925</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605229</v>
+        <v>716.7570176605216</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937159</v>
+        <v>383.0198440937145</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>981.3883278086486</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910446</v>
+        <v>102.7020038910432</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570163</v>
+        <v>217.3078744570175</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770174</v>
+        <v>278.1053753770173</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922098</v>
+        <v>119.3059640922083</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063231</v>
+        <v>257.5649880063244</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086096</v>
+        <v>340.8034957086097</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922098</v>
+        <v>119.3059640922083</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063231</v>
+        <v>257.5649880063244</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086096</v>
+        <v>340.8034957086097</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922098</v>
+        <v>119.3059640922083</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063231</v>
+        <v>257.5649880063244</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086096</v>
+        <v>340.8034957086097</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173584</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>336.3960070795075</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,7 +27470,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>233.1338127086034</v>
       </c>
       <c r="X3" t="n">
-        <v>26.70567032298285</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.70627755366824</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8100993434611</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>240.068063614075</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.38935721520083</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>78.90107697893556</v>
       </c>
       <c r="T5" t="n">
         <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>3.218094562339104</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339767</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8.681117205525439</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677412</v>
+        <v>4.436963001677597</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>193.0804205155683</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>7.116500071462326</v>
       </c>
       <c r="H7" t="n">
-        <v>9.511355374460351</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629794</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422478103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714491</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>94.05550441581505</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1481050682514</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>54.72293255183054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,16 +28059,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.72375040465641</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5.655920176650397e-13</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-6.063298011819521e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.333925562600295e-12</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876472</v>
+        <v>2.881435246876467</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207368</v>
+        <v>29.50949872207362</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552053</v>
+        <v>111.0865323552051</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845822</v>
+        <v>244.5582147845817</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848633</v>
+        <v>366.5293687848626</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214592</v>
+        <v>454.7120927214584</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930986</v>
+        <v>505.9548167930977</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882865</v>
+        <v>514.1416946882855</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521585</v>
+        <v>485.4894229521576</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948956</v>
+        <v>414.3539902948948</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161318</v>
+        <v>311.1625905161312</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266044</v>
+        <v>181.000956826604</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819767</v>
+        <v>65.66070568819754</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320176</v>
+        <v>12.61348279320174</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501177</v>
+        <v>0.2305148197501173</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835842</v>
+        <v>1.541703773835839</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309879</v>
+        <v>14.88961276309876</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882175</v>
+        <v>53.08059045882165</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342012</v>
+        <v>145.6571973342009</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812026</v>
+        <v>248.9513501812021</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234358</v>
+        <v>334.7458128234351</v>
       </c>
       <c r="M6" t="n">
-        <v>390.632574624985</v>
+        <v>390.6325746249842</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118052</v>
+        <v>400.9714565118044</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757584</v>
+        <v>366.8105465757577</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160741</v>
+        <v>294.3978022160735</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584138</v>
+        <v>196.7971343584134</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096572</v>
+        <v>95.72087115096554</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313503</v>
+        <v>28.63647141313497</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943588</v>
+        <v>6.214148105943576</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576212</v>
+        <v>0.101427879857621</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797664</v>
+        <v>1.292512654797662</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265561</v>
+        <v>11.49161251265558</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427886</v>
+        <v>38.86938056427879</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419486</v>
+        <v>91.38064469419467</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574013</v>
+        <v>150.166470257401</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232819</v>
+        <v>192.1613814232815</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970556</v>
+        <v>202.6072336970552</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291736</v>
+        <v>197.7896865291732</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981281</v>
+        <v>182.6907886981277</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402556</v>
+        <v>156.3235305402553</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.230309666739</v>
+        <v>108.2303096667387</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572041</v>
+        <v>58.1160690057203</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861019</v>
+        <v>22.52497053861015</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499109</v>
+        <v>5.522554070499099</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169085</v>
+        <v>0.07050069026169072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.87304630148565</v>
       </c>
       <c r="H11" t="n">
         <v>49.90608543508993</v>
@@ -31759,31 +31759,31 @@
         <v>187.8681175380257</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.593713530718</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.8697634726058</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.0032542216974</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857428</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898389</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294409</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615138</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895589</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356982</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951044</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188519</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969423</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.18112197191522</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.7692132059648</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783042</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202555</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256418</v>
+        <v>566.1178216256417</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>219.8517740430746</v>
       </c>
       <c r="N12" t="n">
-        <v>656.217007420155</v>
+        <v>678.1177801147142</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>620.3452877431811</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>497.8817840205472</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071847</v>
+        <v>332.8207874071846</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697588</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
         <v>0.1715335284190411</v>
@@ -31914,7 +31914,7 @@
         <v>19.43446756737175</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691792</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836912</v>
@@ -31923,16 +31923,16 @@
         <v>253.9596068619742</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509176</v>
       </c>
       <c r="M13" t="n">
         <v>342.646752826371</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973095</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.964316705006</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761897</v>
@@ -31941,13 +31941,13 @@
         <v>183.037710391678</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570612</v>
       </c>
       <c r="S13" t="n">
         <v>38.09394102929613</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.339672552826906</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765139</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>131.9134802621307</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361152</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089027</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.5123102578959</v>
+        <v>63.51231025789542</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398828</v>
+        <v>146.439517739882</v>
       </c>
       <c r="L5" t="n">
-        <v>218.945677751472</v>
+        <v>218.9456777514711</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658259</v>
+        <v>275.6085835658249</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916956</v>
+        <v>284.7286310916946</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304718</v>
+        <v>255.3912115304709</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396261</v>
+        <v>183.1209945396253</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168236</v>
+        <v>88.85690064168173</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753452</v>
+        <v>18.81957066753424</v>
       </c>
       <c r="K6" t="n">
-        <v>342.0114810705672</v>
+        <v>155.183070020412</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435616</v>
+        <v>383.0198440937145</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029666</v>
+        <v>248.4985407029659</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284719</v>
+        <v>269.6297444284711</v>
       </c>
       <c r="O6" t="n">
-        <v>224.214302131314</v>
+        <v>224.2143021313132</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017438</v>
+        <v>160.4233948017433</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239227</v>
+        <v>56.8153602723919</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315184</v>
+        <v>127.8969784315182</v>
       </c>
       <c r="L7" t="n">
-        <v>219.751406683598</v>
+        <v>219.7514066835976</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588962</v>
+        <v>242.1911106588958</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084022</v>
+        <v>241.9218589084018</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121678</v>
+        <v>207.2759166121674</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051491</v>
+        <v>153.6020898051488</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504458</v>
+        <v>22.06826641504436</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313206</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883073677</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040318</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.7799124276252</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517101</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584701</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.096770593248</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077542</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062443</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151094</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.5209569215661</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116375</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458965</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457676</v>
+        <v>427.5634418457675</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>77.71774012105629</v>
       </c>
       <c r="N12" t="n">
-        <v>524.8752953368218</v>
+        <v>546.7760680313809</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>477.7490432987366</v>
       </c>
       <c r="P12" t="n">
-        <v>363.907376606217</v>
+        <v>363.9073766062169</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211632</v>
+        <v>192.8390133211631</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936573</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.18259316701844</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360913</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112338</v>
       </c>
       <c r="M13" t="n">
         <v>382.2306297882116</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765381</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190457</v>
@@ -35586,7 +35586,7 @@
         <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998361</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>5.075853595464022</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.2913587527819</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060448</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319131</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096347</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
